--- a/biology/Médecine/Foyer_de_contagion/Foyer_de_contagion.xlsx
+++ b/biology/Médecine/Foyer_de_contagion/Foyer_de_contagion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En épidémiologie, un foyer de contagion[1] (en anglais : disease cluster[2]) est un ensemble d'évènements sanitaires reliés temporellement et spatialement[3]. Généralement, lorsque des foyers de contagion sont découverts, ils sont rapportés aux organismes de santé publique responsables de la zone régionale de rattachement. Si les foyers sont de taille importante et virulents, ils peuvent être ré-évalués en sources de contagion.[réf. nécessaire]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En épidémiologie, un foyer de contagion (en anglais : disease cluster) est un ensemble d'évènements sanitaires reliés temporellement et spatialement. Généralement, lorsque des foyers de contagion sont découverts, ils sont rapportés aux organismes de santé publique responsables de la zone régionale de rattachement. Si les foyers sont de taille importante et virulents, ils peuvent être ré-évalués en sources de contagion.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1629 : Mantoue, Épidémie de peste en Italie de 1629-1631, dite grande peste de Milan.[réf. nécessaire]
 1663 : Amsterdam, Grande peste de Londres.[réf. nécessaire]
-1720 : Marseille, Peste de Marseille[4].
+1720 : Marseille, Peste de Marseille.
 1854 : Londres, Épidémie de choléra de Broad Street.[réf. nécessaire]
 2019 : Wuhan, à l’émergence de la pandémie de Covid-19.[réf. nécessaire]</t>
         </is>
